--- a/target/test-classes/com/sai/testdata/LoginDataTest.xlsx
+++ b/target/test-classes/com/sai/testdata/LoginDataTest.xlsx
@@ -66,13 +66,13 @@
     <t>Dob</t>
   </si>
   <si>
-    <t>Pavansaisudeeksha</t>
-  </si>
-  <si>
     <t>sailgfrt</t>
   </si>
   <si>
-    <t>Testsaikkkklll@gmail.com</t>
+    <t>Pavansaisud</t>
+  </si>
+  <si>
+    <t>Testsaisud@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -454,12 +454,12 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -498,7 +498,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>31648</v>
@@ -522,7 +522,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/com/sai/testdata/LoginDataTest.xlsx
+++ b/target/test-classes/com/sai/testdata/LoginDataTest.xlsx
@@ -69,10 +69,10 @@
     <t>sailgfrt</t>
   </si>
   <si>
-    <t>Pavansaisud</t>
-  </si>
-  <si>
-    <t>Testsaisud@gmail.com</t>
+    <t>Pavansaisudrrrr</t>
+  </si>
+  <si>
+    <t>Testsaisudggg@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
